--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4140426.771475969</v>
+        <v>4158801.46094209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>100.8611507414944</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>286.8481051559889</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>10.10581259942152</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>140.1367789403456</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>108.9433483874736</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>361.4285244436213</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>9.728248008472455</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.54899921738546</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.26252137233787</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.100838474818014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>18.01892853764462</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,10 +1421,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6857440212297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.77945773664938</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.4374166734253</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>26.02905630219329</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>85.8512317625306</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>26.74904583214665</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>115.118279051951</v>
       </c>
       <c r="D28" t="n">
-        <v>93.87916681139878</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346314</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3323,10 +3323,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,19 +3430,19 @@
         <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692886</v>
       </c>
       <c r="F37" t="n">
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346319</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898766</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
-        <v>49.08922103925164</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430.355453824634</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.392936884222</v>
+        <v>889.8882719363478</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>889.8882719363478</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>504.1000193381036</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>497.1545185889001</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.1363086691491</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>377.4807191145269</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.263756178945</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>735.4165521770612</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>735.4165521770612</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>735.4165521770612</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2100.863596243066</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2100.863596243066</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>688.885551920185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>688.885551920185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>688.885551920185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>688.885551920185</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>688.885551920185</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="Y7" t="n">
-        <v>688.885551920185</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.509002921313</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>366.9469608174807</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>219.0338672350875</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079765</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>935.3935949785084</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>935.3935949785084</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>935.3935949785084</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.6010158349783</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5838,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.3978353108171</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829102</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1248.838879284587</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>1248.838879284587</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y22" t="n">
-        <v>1028.046300141057</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3533.836934303321</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4203.30069560598</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3869.021087329178</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329178</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329178</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746785</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4633.915324715555</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4633.915324715555</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.230836509669</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.813666472708</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X25" t="n">
-        <v>4089.813666472708</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y25" t="n">
-        <v>3869.021087329178</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>550.2226492899338</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698953</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.044532683921</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C28" t="n">
-        <v>192.044532683921</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188989</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>420.0340835819383</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>192.044532683921</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.044532683921</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,13 +6446,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,22 +6464,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764783</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>3870.054822428816</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>4539.518583731475</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>4744.541064513684</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427934</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255132</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494606</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,22 +6689,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6850,10 +6850,10 @@
         <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6938,13 +6938,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6971,7 +6971,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7023,16 +7023,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2520.760934363148</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2722.685770247095</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>2969.450898153559</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>3276.77103143352</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O42" t="n">
-        <v>2279.445761859783</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7546,25 +7546,25 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7634,16 +7634,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155882</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231263</v>
@@ -7688,7 +7688,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>2543.609514411941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>2790.374642318405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>3558.742788710867</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>3888.605416374899</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4558.069177677558</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4763.091658459768</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>723.5186631855837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>673.9335914287639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1133.156678913841</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>905.1671280158234</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.1671280158234</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>148.2747143566551</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10671,19 +10671,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.83804904622872</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>52.497333613053</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.53204524669889</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>41.75994765618424</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>18.73797368291312</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>90.45189930259826</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.74113413690307</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>89.13437063088674</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>27.8094044252025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>260.2082960963841</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>60.58273088403857</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>194.7985152262426</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>52.12854204667683</v>
       </c>
       <c r="D28" t="n">
-        <v>54.73630620681358</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
-        <v>118.1576000593762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644297.0792599391</v>
+        <v>644297.0792599393</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="G2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754179</v>
@@ -26341,19 +26341,19 @@
         <v>821041.7698642844</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642842</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642842</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>54505.51210371254</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161974</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161974</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28804.28589893947</v>
+        <v>-26275.96473549702</v>
       </c>
       <c r="C6" t="n">
-        <v>561163.5933156054</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
-        <v>561163.5933156052</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="E6" t="n">
-        <v>133572.3922595053</v>
+        <v>135607.2114975027</v>
       </c>
       <c r="F6" t="n">
-        <v>658732.4287364018</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="G6" t="n">
-        <v>658732.4287364017</v>
+        <v>660767.2479743987</v>
       </c>
       <c r="H6" t="n">
-        <v>658732.4287364021</v>
+        <v>660767.2479743987</v>
       </c>
       <c r="I6" t="n">
-        <v>658732.428736402</v>
+        <v>660767.2479743985</v>
       </c>
       <c r="J6" t="n">
-        <v>482309.2095438092</v>
+        <v>484344.028781806</v>
       </c>
       <c r="K6" t="n">
-        <v>615063.9999089268</v>
+        <v>617098.8191469237</v>
       </c>
       <c r="L6" t="n">
-        <v>669569.5120126394</v>
+        <v>671604.3312506363</v>
       </c>
       <c r="M6" t="n">
-        <v>534768.496778802</v>
+        <v>536803.3160167988</v>
       </c>
       <c r="N6" t="n">
-        <v>669569.5120126395</v>
+        <v>671604.3312506359</v>
       </c>
       <c r="O6" t="n">
-        <v>669569.5120126391</v>
+        <v>671604.3312506365</v>
       </c>
       <c r="P6" t="n">
-        <v>658732.4287364015</v>
+        <v>660767.247974399</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253.8218908791885</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>126.936064864806</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1410084992063</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>16.03410990144957</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>297.9326973542379</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>8.302576234847777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>215.3068574496118</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>214.1606561716517</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.215881202473852</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.7311417071193</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.18103065089239</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,13 +35735,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>401.6619767334877</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36376,7 +36376,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349808</v>
@@ -36437,7 +36437,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>355.3681292881798</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366875</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37084,7 +37084,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>408.1301468599573</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.8510818313028</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>259.5907485445777</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346381</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>248.8533625877089</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>169.3134122708524</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,10 +38105,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315246</v>
@@ -38117,7 +38117,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4158801.46094209</v>
+        <v>4230453.253502136</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7311457.08035271</v>
+        <v>7216349.556204976</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>286.8481051559889</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.53770671003643</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>140.1367789403456</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>156.4514139701052</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>108.9433483874736</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.54899921738546</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>56.86248390345445</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.26252137233787</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>18.01892853764462</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>173.3665483025482</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>34.26584747916407</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>179.931918743804</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>13.07450385695498</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>131.9638036713302</v>
       </c>
       <c r="H22" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>85.8512317625306</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>27.71082088042264</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>115.118279051951</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>85.35272948320822</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415232</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>6.516088157740587</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>69.28014528492201</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692886</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>131.6255343941025</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>83.22762595891399</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>121.4557673726582</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463175</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>159.639784932386</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1258.850788876759</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C2" t="n">
-        <v>889.8882719363478</v>
+        <v>1425.720364436189</v>
       </c>
       <c r="D2" t="n">
-        <v>889.8882719363478</v>
+        <v>1425.720364436189</v>
       </c>
       <c r="E2" t="n">
-        <v>504.1000193381036</v>
+        <v>1039.932111837944</v>
       </c>
       <c r="F2" t="n">
-        <v>497.1545185889001</v>
+        <v>628.9462070483369</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>210.9823989465237</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1645.450628940881</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>377.4807191145269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.379069117473</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C5" t="n">
-        <v>735.4165521770612</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D5" t="n">
-        <v>735.4165521770612</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>735.4165521770612</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X7" t="n">
-        <v>397.6292392479589</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6292392479589</v>
+        <v>111.0094142528941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1452.061221751178</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2648.399069430002</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2648.399069430002</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2648.399069430002</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4896,7 +4898,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298164</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0636002298164</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>366.9469608174807</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>219.0338672350875</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>72.14391973717719</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>72.14391973717719</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>72.14391973717719</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>72.14391973717719</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5130,16 +5132,16 @@
         <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265284</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.644882483981</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220957</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5291,7 +5293,7 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5361,16 +5363,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1206.091754247198</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5494,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5534,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>4072.250396089495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>4072.250396089495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>3922.133756677159</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>4736.572900023639</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>4736.572900023639</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>4481.888411817752</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>4481.888411817752</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>4253.898860919735</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>4253.898860919735</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5768,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003201</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>399.4500457733748</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212476</v>
+        <v>230.5138628454679</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1323227212476</v>
+        <v>230.5138628454679</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1323227212476</v>
+        <v>230.5138628454679</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1323227212476</v>
+        <v>230.5138628454679</v>
       </c>
       <c r="G22" t="n">
-        <v>241.9570010410683</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>399.4500457733748</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>330.8254548799443</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1470.925542395859</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1247.140127185365</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169049</v>
+        <v>958.0114883989233</v>
       </c>
       <c r="W25" t="n">
-        <v>330.8254548799443</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X25" t="n">
-        <v>330.8254548799443</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.8254548799443</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.3704617344999</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830343</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706985</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>877.9208635589189</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>623.236375353032</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>623.236375353032</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.3704617344999</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>4244.714639971548</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>4075.778457043642</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>4654.352655699805</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>4426.363104801788</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>4426.363104801788</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>685.2031887488815</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>685.2031887488815</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>685.2031887488815</v>
       </c>
     </row>
     <row r="35">
@@ -6917,64 +6919,64 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>4073.011257337223</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>3904.075074409316</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>3753.95843499698</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>4205.966342583791</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4073.011257337223</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>4073.011257337223</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>4073.011257337223</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7153,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,28 +7192,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2722.685770247095</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2969.450898153559</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3276.77103143352</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>367.8127783483943</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>219.8996847660012</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>219.8996847660012</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155882</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,25 +7715,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
         <v>1302.911127126629</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>573.5346686508867</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>755.1831334811264</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8699,7 +8701,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>358.3520020925046</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9182,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.23759968302147</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>219.9778004203347</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>32.78140656352411</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>403.7628319612143</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524669889</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>132.9809736194638</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.74113413690307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>17.98889123979924</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.4730572014343</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.52976479204742</v>
       </c>
       <c r="H22" t="n">
-        <v>5.621317882561556</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>60.58273088403857</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>170.2099891031806</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>52.12854204667683</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>200.8846229153691</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.0069101788504</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>217.242853051669</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>154.8974639424885</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.38784705929837</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.03780109071938</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>7.607036166241869</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644297.0792599391</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682897</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
+        <v>782058.1194754173</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642842</v>
-      </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338375</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230234</v>
@@ -26442,19 +26444,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362282</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362282</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362281</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362281</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-26275.96473549702</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790475</v>
+        <v>563691.9144790473</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790475</v>
+        <v>563691.9144790472</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975027</v>
+        <v>135607.2114975028</v>
       </c>
       <c r="F6" t="n">
+        <v>660767.2479743985</v>
+      </c>
+      <c r="G6" t="n">
+        <v>660767.2479743983</v>
+      </c>
+      <c r="H6" t="n">
+        <v>660767.2479743985</v>
+      </c>
+      <c r="I6" t="n">
         <v>660767.2479743988</v>
       </c>
-      <c r="G6" t="n">
-        <v>660767.2479743987</v>
-      </c>
-      <c r="H6" t="n">
-        <v>660767.2479743987</v>
-      </c>
-      <c r="I6" t="n">
-        <v>660767.2479743985</v>
-      </c>
       <c r="J6" t="n">
-        <v>484344.028781806</v>
+        <v>484344.0287818057</v>
       </c>
       <c r="K6" t="n">
-        <v>617098.8191469237</v>
+        <v>660767.2479743989</v>
       </c>
       <c r="L6" t="n">
-        <v>671604.3312506363</v>
+        <v>660767.2479743989</v>
       </c>
       <c r="M6" t="n">
-        <v>536803.3160167988</v>
+        <v>525966.232740561</v>
       </c>
       <c r="N6" t="n">
-        <v>671604.3312506359</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="O6" t="n">
-        <v>671604.3312506365</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.247974399</v>
+        <v>660767.2479743988</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545553</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.936064864806</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>320.3850660543207</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.03410990144957</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>198.2316276505778</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>297.9326973542379</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>89.93819453836485</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>214.1606561716517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>308.4104078675531</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.215881202473852</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.18103065089239</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>52.343107086489</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.956648617397127e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>5.691492001660777e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35498,19 +35500,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>691.5465754905174</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35729,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450414</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35902,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,19 +35974,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>401.6619767334877</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36448,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,19 +36685,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>553.1723738183475</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>462.5180961366875</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>365.975979961537</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
@@ -36929,7 +36931,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37148,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>408.2698052695489</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>714.1872090116807</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346381</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4230453.253502136</v>
+        <v>4223436.238610427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>3.53770671003643</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>1.332975795529292</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.5103304121437</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>156.4514139701052</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>155.2548023872872</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>56.49576810820431</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>56.86248390345445</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>405.3633998272718</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.32882004050074</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>173.3665483025482</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.26584747916407</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>179.931918743804</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>222.2179949548718</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
-        <v>13.07450385695498</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>131.9638036713302</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>27.71082088042264</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>85.35272948320822</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>68.46790565106328</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>6.516088157740587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.250241677064703</v>
       </c>
     </row>
     <row r="32">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>69.28014528492201</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.950364805198</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>234.8620629871508</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>131.6255343941025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>83.22762595891399</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>11.8215096537383</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4557673726582</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>159.639784932386</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>104.7919727697734</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1794.6828813766</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1425.720364436189</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1425.720364436189</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1039.932111837944</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>628.9462070483369</v>
+        <v>800.4479500836791</v>
       </c>
       <c r="G2" t="n">
-        <v>210.9823989465237</v>
+        <v>382.4841419818659</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>55.28942201786879</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.6828813766</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,7 +4421,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>229.6312428658947</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798435</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798435</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798435</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1099.292566481063</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1099.292566481063</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.0094142528941</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>111.0094142528941</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>111.0094142528941</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.0094142528941</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751178</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>477.3243655052805</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5041,49 +5041,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5345,31 +5345,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1206.091754247198</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>982.3063390367042</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>982.3063390367042</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>982.3063390367042</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>692.8891689997437</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>464.8996181017263</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,37 +5509,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4072.250396089495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4072.250396089495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4736.572900023639</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4736.572900023639</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4481.888411817752</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4481.888411817752</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4253.898860919735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4253.898860919735</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.4500457733748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>230.5138628454679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>230.5138628454679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>230.5138628454679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>230.5138628454679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>620.2426249169049</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.4500457733748</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1470.925542395859</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1247.140127185365</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>958.0114883989233</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>958.0114883989233</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>668.5943183619627</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.2468244550147</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>877.9208635589189</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>623.236375353032</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>623.236375353032</v>
+        <v>1175.072281694376</v>
       </c>
       <c r="X28" t="n">
-        <v>395.2468244550147</v>
+        <v>947.0827307963585</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.2468244550147</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="29">
@@ -6439,61 +6439,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4244.714639971548</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>4075.778457043642</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631306</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048913</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048913</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929846</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929846</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>4654.352655699805</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>4426.363104801788</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y31" t="n">
-        <v>4426.363104801788</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W34" t="n">
-        <v>685.2031887488815</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>685.2031887488815</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>685.2031887488815</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4073.011257337223</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C37" t="n">
-        <v>3904.075074409316</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>3753.95843499698</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789677</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="V37" t="n">
-        <v>4205.966342583791</v>
+        <v>1261.681863500174</v>
       </c>
       <c r="W37" t="n">
-        <v>4073.011257337223</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X37" t="n">
-        <v>4073.011257337223</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y37" t="n">
-        <v>4073.011257337223</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>349.4607221898733</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C40" t="n">
-        <v>349.4607221898733</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>531.109187020113</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>531.109187020113</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>531.109187020113</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,13 +7499,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>367.8127783483943</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>219.8996847660012</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>219.8996847660012</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344999</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.5778825909698</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>573.5346686508867</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C46" t="n">
-        <v>412.2823606383756</v>
+        <v>816.4639402180511</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>755.1831334811264</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W46" t="n">
-        <v>755.1831334811264</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X46" t="n">
-        <v>755.1831334811264</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y46" t="n">
-        <v>755.1831334811264</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N12" t="n">
-        <v>358.3520020925046</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>219.9778004203347</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>32.78140656352411</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>403.7628319612143</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>132.9809736194638</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>17.98889123979924</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
-        <v>208.4730572014343</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.52976479204742</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>170.2099891031806</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>200.8846229153691</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>218.0550926855277</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>280.0069101788504</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>215.3344116750301</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>217.242853051669</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,13 +25368,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>51.37528941142659</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>154.8974639424885</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.38784705929837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.6124529928309</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>64.30500338171971</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.03780109071938</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>7.607036166241869</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>43.82350024843896</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682897</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.1194754181</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="K2" t="n">
-        <v>782058.1194754179</v>
-      </c>
       <c r="L2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="O2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="P2" t="n">
         <v>782058.1194754175</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="P2" t="n">
-        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338375</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549702</v>
+        <v>-26275.96473549691</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790473</v>
+        <v>563691.9144790479</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790472</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975028</v>
+        <v>134632.6202377811</v>
       </c>
       <c r="F6" t="n">
-        <v>660767.2479743985</v>
+        <v>659792.6567146772</v>
       </c>
       <c r="G6" t="n">
-        <v>660767.2479743983</v>
+        <v>659792.6567146776</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.2479743985</v>
+        <v>659792.6567146772</v>
       </c>
       <c r="I6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="J6" t="n">
-        <v>484344.0287818057</v>
+        <v>483369.437522084</v>
       </c>
       <c r="K6" t="n">
-        <v>660767.2479743989</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="L6" t="n">
-        <v>660767.2479743989</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="M6" t="n">
-        <v>525966.232740561</v>
+        <v>524991.6414808399</v>
       </c>
       <c r="N6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146768</v>
       </c>
       <c r="O6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146769</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.3850660543207</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>150.598340449332</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>106.4552913801945</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>52.02592219651751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>198.2316276505778</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>19.16091042168432</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>89.93819453836485</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>308.4104078675531</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.512645914439645</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.1051426060684</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>52.343107086489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.956648617397127e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.691492001660777e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N12" t="n">
-        <v>691.5465754905174</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>441.2361441450414</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,13 +36448,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>553.1723738183475</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>408.2698052695489</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>714.1872090116807</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223436.238610427</v>
+        <v>4228375.501459458</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>1.332975795529292</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.17672961320554</v>
       </c>
       <c r="I4" t="n">
-        <v>28.5103304121437</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>155.2548023872872</v>
+        <v>155.2548023872867</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>405.3633998272718</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>395.0053657698354</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>26.32882004050074</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467009</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2179949548718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.930904319359</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>68.46790565106328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>44.76059872677006</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.250241677064703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>115.1182790519509</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>234.8620629871508</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>11.8215096537383</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.7919727697734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>122.6700682149386</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.181703431127</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>807.3934508328825</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>800.4479500836791</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>382.4841419818659</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>55.28942201786879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482878</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E4" t="n">
-        <v>229.6312428658947</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F4" t="n">
-        <v>82.74129536798435</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G4" t="n">
-        <v>82.74129536798435</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="H4" t="n">
-        <v>82.74129536798435</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4564,10 +4564,10 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,13 +4585,13 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
         <v>2540.326058303791</v>
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4713,61 +4713,61 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y7" t="n">
         <v>701.5342164887571</v>
@@ -4780,64 +4780,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035247</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035247</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E8" t="n">
-        <v>477.3243655052805</v>
+        <v>863.9242055694017</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>452.9383007797941</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
         <v>2366.086203674652</v>
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761949</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>377.544336448288</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359523</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5029,46 +5029,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141867</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277037</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653856</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5138,7 +5138,7 @@
         <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5199,16 +5199,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,19 +5226,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5269,49 +5269,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5469,19 +5469,19 @@
         <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5506,31 +5506,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,13 +5755,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619128</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5846,10 +5846,10 @@
         <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T22" t="n">
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6217,34 +6217,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6320,7 +6320,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>544.6416868225887</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6416868225887</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>1175.072281694376</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X28" t="n">
-        <v>947.0827307963585</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y28" t="n">
-        <v>726.2901516528284</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6475,25 +6475,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6612,13 +6612,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,13 +6657,13 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X31" t="n">
-        <v>268.6754855415407</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y31" t="n">
         <v>265.3924131404652</v>
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.085404217832</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.956765431391</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,37 +6931,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.2646934632137</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>770.2538223221642</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>622.3407287397711</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>475.4507812418607</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7092,7 +7092,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1261.681863500174</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1261.681863500174</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>972.2646934632137</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>972.2646934632137</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y37" t="n">
-        <v>972.2646934632137</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="38">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>256.0479578003561</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>256.0479578003561</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>256.0479578003561</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028587</v>
@@ -7377,7 +7377,7 @@
         <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.6964226305959</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,64 +7399,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7611,10 +7611,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7788,22 +7788,22 @@
         <v>816.4639402180511</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>666.3473008057153</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>518.4342072233222</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>371.5442597254118</v>
       </c>
       <c r="G46" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298105</v>
+        <v>65.7164198729791</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229576</v>
+        <v>409.7003683229562</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735866</v>
+        <v>180.0237016735856</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.0576765518764</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>64.30500338171925</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>51.56266414401857</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>218.0550926855277</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>180.9490566622671</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.3344116750301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>51.37528941142669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>51.37528941142659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>134.6124529928309</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.30500338171971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.82350024843896</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.82350024843899</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="N2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="N2" t="n">
-        <v>782058.1194754174</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754178</v>
-      </c>
       <c r="P2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.5455523023</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549691</v>
+        <v>-26275.96473549705</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790479</v>
+        <v>563691.9144790474</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790475</v>
+        <v>563691.9144790476</v>
       </c>
       <c r="E6" t="n">
-        <v>134632.6202377811</v>
+        <v>135509.7523715303</v>
       </c>
       <c r="F6" t="n">
-        <v>659792.6567146772</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="G6" t="n">
-        <v>659792.6567146776</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="H6" t="n">
-        <v>659792.6567146772</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="I6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484271</v>
       </c>
       <c r="J6" t="n">
-        <v>483369.437522084</v>
+        <v>484246.5696558335</v>
       </c>
       <c r="K6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484265</v>
       </c>
       <c r="L6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484264</v>
       </c>
       <c r="M6" t="n">
-        <v>524991.6414808399</v>
+        <v>525868.7736145892</v>
       </c>
       <c r="N6" t="n">
-        <v>659792.6567146768</v>
+        <v>660669.7888484268</v>
       </c>
       <c r="O6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="P6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484267</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150.598340449332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>127.9941592285896</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4552913801945</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>19.16091042168432</v>
+        <v>19.1609104216848</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>2.79392991441399</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.512645914439645</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>18.77880425095958</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>120.1051426060684</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>199.3808353485368</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734239</v>
+        <v>720.1247453734228</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415668</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586608</v>
+        <v>268.0367344586599</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O30" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37785,7 +37785,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
